--- a/Running projects/Gul Ahmed Energy Limited/VO/07- variation order for SS Drain tray.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/07- variation order for SS Drain tray.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E06B8-ECE1-4A5C-BF69-DFF7AC5C7C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8BF85-3313-4D86-B8FA-2F74C1AB4516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Attn: Mr. Taha Ghaznavi</t>
   </si>
   <si>
-    <t>Note: GREE Quotation attached</t>
-  </si>
-  <si>
     <t>Material Rate</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Supply and installation of 20 SWG SS Drain Tray on outdoor VRF system. (as per Client and ASPL recommendations)</t>
+  </si>
+  <si>
+    <t>Note: Vendor quotation attached</t>
   </si>
 </sst>
 </file>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
       </c>
       <c r="B16" s="32"/>
       <c r="I16" s="9">
-        <v>45769</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -907,7 +907,7 @@
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -920,7 +920,7 @@
     </row>
     <row r="23" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -979,7 +979,7 @@
     <row r="27" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="15">
         <v>18500</v>
@@ -996,7 +996,7 @@
         <v>26240</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="14">
         <v>4</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B33" s="5"/>
     </row>

--- a/Running projects/Gul Ahmed Energy Limited/VO/07- variation order for SS Drain tray.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/07- variation order for SS Drain tray.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8BF85-3313-4D86-B8FA-2F74C1AB4516}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110723F-CAA6-4369-AAE2-1D43E12B03F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$92</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
 </workbook>
@@ -504,6 +504,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A6E07C-31F9-4289-96AF-AA31D04D50B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="10858499"/>
+          <a:ext cx="6343650" cy="9486901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -834,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
